--- a/po_analysis_by_asin/B09ZKJ3SQ7_po_data.xlsx
+++ b/po_analysis_by_asin/B09ZKJ3SQ7_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -522,38 +522,6 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>45102.99999999999</v>
-      </c>
-      <c r="B11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>45116.99999999999</v>
-      </c>
-      <c r="B12" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>45123.99999999999</v>
-      </c>
-      <c r="B13" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>45130.99999999999</v>
-      </c>
-      <c r="B14" t="n">
-        <v>30</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -565,7 +533,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -630,15 +598,7 @@
         <v>45107.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>45138.99999999999</v>
-      </c>
-      <c r="B8" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B09ZKJ3SQ7_po_data.xlsx
+++ b/po_analysis_by_asin/B09ZKJ3SQ7_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -549,7 +550,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -599,6 +600,285 @@
       </c>
       <c r="B7" t="n">
         <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44948.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>14</v>
+      </c>
+      <c r="C2" t="n">
+        <v>4.811050398242077</v>
+      </c>
+      <c r="D2" t="n">
+        <v>21.45061053583695</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44955.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>14</v>
+      </c>
+      <c r="C3" t="n">
+        <v>5.287684375463265</v>
+      </c>
+      <c r="D3" t="n">
+        <v>22.61259161860073</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>44962.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>14</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4.429021688167442</v>
+      </c>
+      <c r="D4" t="n">
+        <v>22.00203184940514</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>44976.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>14</v>
+      </c>
+      <c r="C5" t="n">
+        <v>5.325844373632378</v>
+      </c>
+      <c r="D5" t="n">
+        <v>22.3504726283629</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>44990.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>14</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5.433036685267878</v>
+      </c>
+      <c r="D6" t="n">
+        <v>22.3878063519464</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45032.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>15</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5.893652005807337</v>
+      </c>
+      <c r="D7" t="n">
+        <v>23.8695005452282</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>15</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6.120525774222306</v>
+      </c>
+      <c r="D8" t="n">
+        <v>23.99457057624612</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45081.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>15</v>
+      </c>
+      <c r="C9" t="n">
+        <v>6.819656779480601</v>
+      </c>
+      <c r="D9" t="n">
+        <v>23.45276419782977</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>15</v>
+      </c>
+      <c r="C10" t="n">
+        <v>6.588110681681489</v>
+      </c>
+      <c r="D10" t="n">
+        <v>23.58978841790612</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>16</v>
+      </c>
+      <c r="C11" t="n">
+        <v>7.150655798430816</v>
+      </c>
+      <c r="D11" t="n">
+        <v>24.70120333675595</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>16</v>
+      </c>
+      <c r="C12" t="n">
+        <v>7.28378070461506</v>
+      </c>
+      <c r="D12" t="n">
+        <v>23.41846609423867</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>16</v>
+      </c>
+      <c r="C13" t="n">
+        <v>7.318743449441446</v>
+      </c>
+      <c r="D13" t="n">
+        <v>23.77995243493174</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>16</v>
+      </c>
+      <c r="C14" t="n">
+        <v>6.614419168197328</v>
+      </c>
+      <c r="D14" t="n">
+        <v>24.03877720827884</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>16</v>
+      </c>
+      <c r="C15" t="n">
+        <v>6.608262848741352</v>
+      </c>
+      <c r="D15" t="n">
+        <v>24.20104640293319</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>16</v>
+      </c>
+      <c r="C16" t="n">
+        <v>7.513086684116376</v>
+      </c>
+      <c r="D16" t="n">
+        <v>24.73359118504321</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" t="n">
+        <v>7.111461435570476</v>
+      </c>
+      <c r="D17" t="n">
+        <v>24.63001241059244</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>7.701885359177983</v>
+      </c>
+      <c r="D18" t="n">
+        <v>24.84308134129092</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B09ZKJ3SQ7_po_data.xlsx
+++ b/po_analysis_by_asin/B09ZKJ3SQ7_po_data.xlsx
@@ -613,7 +613,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -632,16 +632,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -650,12 +640,6 @@
       <c r="B2" t="n">
         <v>14</v>
       </c>
-      <c r="C2" t="n">
-        <v>4.811050398242077</v>
-      </c>
-      <c r="D2" t="n">
-        <v>21.45061053583695</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -664,12 +648,6 @@
       <c r="B3" t="n">
         <v>14</v>
       </c>
-      <c r="C3" t="n">
-        <v>5.287684375463265</v>
-      </c>
-      <c r="D3" t="n">
-        <v>22.61259161860073</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -678,12 +656,6 @@
       <c r="B4" t="n">
         <v>14</v>
       </c>
-      <c r="C4" t="n">
-        <v>4.429021688167442</v>
-      </c>
-      <c r="D4" t="n">
-        <v>22.00203184940514</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -692,12 +664,6 @@
       <c r="B5" t="n">
         <v>14</v>
       </c>
-      <c r="C5" t="n">
-        <v>5.325844373632378</v>
-      </c>
-      <c r="D5" t="n">
-        <v>22.3504726283629</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -706,12 +672,6 @@
       <c r="B6" t="n">
         <v>14</v>
       </c>
-      <c r="C6" t="n">
-        <v>5.433036685267878</v>
-      </c>
-      <c r="D6" t="n">
-        <v>22.3878063519464</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -720,12 +680,6 @@
       <c r="B7" t="n">
         <v>15</v>
       </c>
-      <c r="C7" t="n">
-        <v>5.893652005807337</v>
-      </c>
-      <c r="D7" t="n">
-        <v>23.8695005452282</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -734,12 +688,6 @@
       <c r="B8" t="n">
         <v>15</v>
       </c>
-      <c r="C8" t="n">
-        <v>6.120525774222306</v>
-      </c>
-      <c r="D8" t="n">
-        <v>23.99457057624612</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -748,12 +696,6 @@
       <c r="B9" t="n">
         <v>15</v>
       </c>
-      <c r="C9" t="n">
-        <v>6.819656779480601</v>
-      </c>
-      <c r="D9" t="n">
-        <v>23.45276419782977</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -762,12 +704,6 @@
       <c r="B10" t="n">
         <v>15</v>
       </c>
-      <c r="C10" t="n">
-        <v>6.588110681681489</v>
-      </c>
-      <c r="D10" t="n">
-        <v>23.58978841790612</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -776,12 +712,6 @@
       <c r="B11" t="n">
         <v>16</v>
       </c>
-      <c r="C11" t="n">
-        <v>7.150655798430816</v>
-      </c>
-      <c r="D11" t="n">
-        <v>24.70120333675595</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -790,12 +720,6 @@
       <c r="B12" t="n">
         <v>16</v>
       </c>
-      <c r="C12" t="n">
-        <v>7.28378070461506</v>
-      </c>
-      <c r="D12" t="n">
-        <v>23.41846609423867</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -804,12 +728,6 @@
       <c r="B13" t="n">
         <v>16</v>
       </c>
-      <c r="C13" t="n">
-        <v>7.318743449441446</v>
-      </c>
-      <c r="D13" t="n">
-        <v>23.77995243493174</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -818,12 +736,6 @@
       <c r="B14" t="n">
         <v>16</v>
       </c>
-      <c r="C14" t="n">
-        <v>6.614419168197328</v>
-      </c>
-      <c r="D14" t="n">
-        <v>24.03877720827884</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -832,12 +744,6 @@
       <c r="B15" t="n">
         <v>16</v>
       </c>
-      <c r="C15" t="n">
-        <v>6.608262848741352</v>
-      </c>
-      <c r="D15" t="n">
-        <v>24.20104640293319</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -846,12 +752,6 @@
       <c r="B16" t="n">
         <v>16</v>
       </c>
-      <c r="C16" t="n">
-        <v>7.513086684116376</v>
-      </c>
-      <c r="D16" t="n">
-        <v>24.73359118504321</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -860,12 +760,6 @@
       <c r="B17" t="n">
         <v>16</v>
       </c>
-      <c r="C17" t="n">
-        <v>7.111461435570476</v>
-      </c>
-      <c r="D17" t="n">
-        <v>24.63001241059244</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -873,12 +767,6 @@
       </c>
       <c r="B18" t="n">
         <v>16</v>
-      </c>
-      <c r="C18" t="n">
-        <v>7.701885359177983</v>
-      </c>
-      <c r="D18" t="n">
-        <v>24.84308134129092</v>
       </c>
     </row>
   </sheetData>
